--- a/20241202_인사기사모니터링_REF/Data/Config.xlsx
+++ b/20241202_인사기사모니터링_REF/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\4_강의후복습\20241207_인사기사모니터링_ref\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241202_인사기사모니터링_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADC360A-2FDD-4DDE-B02A-76BDBA04587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E333E-DE1A-433C-A4B6-6BFEA621DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11130" yWindow="-15810" windowWidth="18690" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -218,15 +218,58 @@
     <t>FirstQueue</t>
   </si>
   <si>
-    <t>cplus1004@gmail.com's workspace</t>
-  </si>
-  <si>
-    <t>키워드</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>연합뉴스,한겨레,뉴시스</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인사기사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. ({1})</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -268,8 +311,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">.
-{1}
+      <t xml:space="preserve">. 
+({1})
  - RPA </t>
     </r>
     <r>
@@ -294,64 +337,44 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{0}  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인사기사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>키워드</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd: HH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MM-dd HH:mm</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm</t>
+  </si>
+  <si>
+    <t>yyyy.MM.dd HH:mm:ss</t>
+  </si>
+  <si>
+    <t>연합작성날짜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>한겨레작성날짜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>뉴시스작성날짜</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,14 +428,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,18 +485,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -781,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -844,115 +876,141 @@
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
-      <c r="A5" t="s">
+    <row r="4" spans="1:26" ht="29">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
+      <c r="A6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
+      <c r="A8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
+      <c r="A10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="99" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="99" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>62</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>61</v>
+      <c r="A14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1918,8 +1976,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20241202_인사기사모니터링_REF/Data/Config.xlsx
+++ b/20241202_인사기사모니터링_REF/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241202_인사기사모니터링_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E333E-DE1A-433C-A4B6-6BFEA621DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DF4A1-E20B-4BED-87C9-C98E74056C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20670" yWindow="6615" windowWidth="19200" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -358,15 +358,15 @@
     <t>yyyy.MM.dd HH:mm:ss</t>
   </si>
   <si>
-    <t>연합작성날짜</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>한겨레작성날짜</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>뉴시스작성날짜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>연합뉴스작성날짜</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,6 +499,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -815,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -965,8 +966,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>68</v>
+      <c r="A14" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -974,7 +975,7 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -982,7 +983,7 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>

--- a/20241202_인사기사모니터링_REF/Data/Config.xlsx
+++ b/20241202_인사기사모니터링_REF/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241202_인사기사모니터링_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DF4A1-E20B-4BED-87C9-C98E74056C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A03B7A-160F-4759-8C38-86FD53A49FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20670" yWindow="6615" windowWidth="19200" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>연합뉴스작성날짜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>연합뉴스페이지</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>한겨레페이지</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>뉴시스페이지</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -814,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -966,40 +978,61 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
+      <c r="A15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
+      <c r="A16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1977,6 +2010,9 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
